--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r111_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r111_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -737,10 +749,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -784,28 +796,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -830,28 +842,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1026,10 +1038,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1073,28 +1085,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1119,28 +1131,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1373,10 +1385,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1420,28 +1432,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1466,28 +1478,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1633,10 +1645,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1680,28 +1692,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1726,28 +1738,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1893,10 +1905,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1940,28 +1952,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1986,28 +1998,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2182,10 +2194,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2229,28 +2241,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2275,28 +2287,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2384,10 +2396,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2431,28 +2443,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2477,28 +2489,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2644,10 +2656,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2691,28 +2703,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2737,28 +2749,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2933,10 +2945,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2980,28 +2992,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3026,28 +3038,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3193,10 +3205,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3240,28 +3252,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3286,28 +3298,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3453,10 +3465,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3500,28 +3512,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3546,28 +3558,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3713,10 +3725,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3760,28 +3772,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3806,28 +3818,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3973,10 +3985,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4020,28 +4032,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4066,28 +4078,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4204,10 +4216,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4251,28 +4263,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4297,28 +4309,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4406,10 +4418,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4453,28 +4465,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4499,28 +4511,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4666,10 +4678,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4713,28 +4725,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4759,28 +4771,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4897,10 +4909,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4944,28 +4956,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4990,28 +5002,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5128,10 +5140,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5175,28 +5187,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5221,28 +5233,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5330,10 +5342,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5377,28 +5389,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5423,28 +5435,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5532,10 +5544,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5579,28 +5591,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5625,28 +5637,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5763,10 +5775,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5810,28 +5822,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5856,28 +5868,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6023,10 +6035,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6070,28 +6082,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6116,28 +6128,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6225,10 +6237,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6272,28 +6284,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6318,28 +6330,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6398,10 +6410,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6445,28 +6457,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6491,28 +6503,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6571,10 +6583,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6618,28 +6630,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6664,28 +6676,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6744,10 +6756,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6791,28 +6803,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6837,28 +6849,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6946,10 +6958,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6993,28 +7005,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7039,28 +7051,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7119,10 +7131,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7166,28 +7178,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7212,28 +7224,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7321,10 +7333,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="2" t="s">
+      <c r="J249" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7368,28 +7380,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="2">
+      <c r="A251" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="2">
+      <c r="C251" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7414,28 +7426,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="2">
+      <c r="C253" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="2">
+      <c r="D253" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="2">
+      <c r="I253" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7494,10 +7506,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7541,28 +7553,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7587,28 +7599,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7667,10 +7679,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
